--- a/carlist.xlsx
+++ b/carlist.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -719,6 +719,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/carlist.xlsx
+++ b/carlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,810 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Toyota Venza</t>
+          <t>Skoda Kodiaq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.0D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>95 tūkst.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25,800 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Seat Ateca</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>216 tūkst.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18,484 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Volvo V90</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39,990 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Audi A6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>264 tūkst.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18,900 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mercedes E200</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>178 tūkst.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13,690 €</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21,900 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ford S-Max</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>82 tūkst.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>179 tūkst.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16,630 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bmw 520</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>109 tūkst.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27,700 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Toyota Proace</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96 tūkst.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Volvo V60</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>157 tūkst.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19,800 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bmw 318</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>79 tūkst.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mini Countryman</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>119 tūkst.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21,000 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Land Rover Discovery</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>92 tūkst.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jaguar F-Pace</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>103 tūkst.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25,990 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>268 tūkst.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14,400 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kia Sportage</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>134 tūkst.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>16,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Volvo XC 90</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>82 tūkst.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34,990 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Volvo XC 90</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>125 tūkst.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34,990 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Peugeot 3008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>83 tūkst.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23,600 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Skoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>80 tūkst.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23,000 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ford Transit</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Nissan X-Trail</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>107 tūkst.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18,790 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Volvo V90</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>182 tūkst.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23,900 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Skoda Superb</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>66 tūkst.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24,150 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Skoda Kodiaq</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>96 tūkst.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28,350 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Bmw X3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>140 tūkst.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>29,000 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Volkswagen T-Roc</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>67 tūkst.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24,500 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Audi A4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>215 tūkst.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>17,410 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Volvo V90</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>248 tūkst.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23,700 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Infinity Q30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2.0D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>149 tūkst.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>19,290 €</t>
         </is>
       </c>
     </row>
